--- a/www/IndicatorsPerCountry/Uganda_TotalCO2Emissions_TerritorialRef_1962_2012_CCode_800.xlsx
+++ b/www/IndicatorsPerCountry/Uganda_TotalCO2Emissions_TerritorialRef_1962_2012_CCode_800.xlsx
@@ -234,13 +234,13 @@
     <t>Klein Goldewijk, Kees (2015). Total CO2 Emissions. http://hdl.handle.net/10622/CCYQY7, accessed via the Clio Infra website.</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_CCYQY7.xml</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_CCYQY7.ris</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_CCYQY7.bib</t>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_CCYQY7.xml</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_CCYQY7.ris</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_CCYQY7.bib</t>
   </si>
 </sst>
 </file>
